--- a/target/classes/ExcelFiles/Logindata.xlsx
+++ b/target/classes/ExcelFiles/Logindata.xlsx
@@ -24,24 +24,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>Username</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>admin</t>
   </si>
   <si>
-    <t>Usertype</t>
-  </si>
-  <si>
-    <t>riya123</t>
-  </si>
-  <si>
-    <t>Riya</t>
+    <t>Veena</t>
+  </si>
+  <si>
+    <t>v123</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>sema</t>
+  </si>
+  <si>
+    <t>ssaaa</t>
+  </si>
+  <si>
+    <t>usernmae</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>type</t>
   </si>
 </sst>
 </file>
@@ -359,10 +368,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -372,24 +381,46 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
+      <c r="C4" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
